--- a/Vassiljev.xlsx
+++ b/Vassiljev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JPTV20\Test_Python_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>A</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Программа запрашивает повторный ввод данных</t>
+  </si>
+  <si>
+    <t>Будет 1 корень</t>
+  </si>
+  <si>
+    <t>Будет лишь 1 корень</t>
   </si>
 </sst>
 </file>
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1144,36 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13">
+        <v>27</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18" si="15">B18*B18-4*A18*C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18" si="16">(-B18+SQRT(E18))/(2*A18)</f>
+        <v>-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="17">(-B18-SQRT(E18))/(2*A18)</f>
+        <v>-3</v>
+      </c>
       <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
